--- a/src/test/resources/Data/testdata.xlsx
+++ b/src/test/resources/Data/testdata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>TCName</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>LastName</t>
+  </si>
+  <si>
+    <t>Verify_Title_TC01</t>
+  </si>
+  <si>
+    <t>Title</t>
   </si>
 </sst>
 </file>
@@ -406,59 +412,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.1796875" customWidth="1"/>
-    <col min="2" max="2" width="10.08984375" customWidth="1"/>
-    <col min="3" max="3" width="11.90625" customWidth="1"/>
+    <col min="1" max="2" width="38.1796875" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
